--- a/HASIL STOK OPNAME GUDANG PER 16 JUNI 2020.xlsx
+++ b/HASIL STOK OPNAME GUDANG PER 16 JUNI 2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\STOCK OPNAME 2020\JUNI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\lagu-vokal-grup-N-GPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="7740" tabRatio="868" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="7740" tabRatio="868" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GDG BARU" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="GDG DIPAN &amp; MATRAS" sheetId="12" r:id="rId7"/>
     <sheet name="GDG DIPAN &amp; MATRAS (HASIL CEK)" sheetId="13" r:id="rId8"/>
     <sheet name="BRG BLM MATCH" sheetId="4" r:id="rId9"/>
+    <sheet name="GDG FURN BARU" sheetId="14" r:id="rId10"/>
+    <sheet name="GDG FURN TARIK" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'GDG BARU E SELISIH 0'!$A$1:$E$138</definedName>
@@ -28,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'GDG DIPAN &amp; MATRAS (HASIL CEK)'!$A$1:$G$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'GDG TARIKAN E SELISIH 0'!$A$1:$E$108</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="1139">
   <si>
     <t xml:space="preserve">STOK OPNAME GUDANG </t>
   </si>
@@ -3443,6 +3445,18 @@
   </si>
   <si>
     <t>LANTAI 3 FISIK 2</t>
+  </si>
+  <si>
+    <t>BARANG FURNITURE BARU (MINUS &amp; PLUS)</t>
+  </si>
+  <si>
+    <t>LANTAI 3 LUAR</t>
+  </si>
+  <si>
+    <t>LIST INI DIAMBIL DARI SHEET 'GDG FURN TARIK'</t>
+  </si>
+  <si>
+    <t>BARANG FURNITURE TARIKAN (MINUS &amp; PLUS)</t>
   </si>
 </sst>
 </file>
@@ -3453,7 +3467,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3484,8 +3498,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3501,6 +3522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3552,7 +3579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3642,15 +3669,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13542,6 +13572,1245 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>43998</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>161</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
+        <f>E5-D5</f>
+        <v>-1</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>177</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <f>E6-D6</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>187</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <f>E7-D7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>210</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <f>E8-D8</f>
+        <v>-1</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>218</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f>E9-D9</f>
+        <v>-1</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>220</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <f>E10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>228</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <f>E11-D11</f>
+        <v>-1</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>245</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <f>E12-D12</f>
+        <v>-1</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>249</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <f>E13-D13</f>
+        <v>-1</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>255</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11">
+        <f>E14-D14</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>258</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <f>E15-D15</f>
+        <v>-2</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>259</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <f>E16-D16</f>
+        <v>-1</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>260</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <f>E17-D17</f>
+        <v>-1</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>264</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="11">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11">
+        <v>7</v>
+      </c>
+      <c r="F18" s="11">
+        <f>E18-D18</f>
+        <v>-3</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>266</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11">
+        <f>E19-D19</f>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>267</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4</v>
+      </c>
+      <c r="F20" s="11">
+        <f>E20-D20</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>274</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11">
+        <f>E21-D21</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>286</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
+        <f>E22-D22</f>
+        <v>-1</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>302</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <f>E23-D23</f>
+        <v>-1</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>304</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11">
+        <f>E24-D24</f>
+        <v>-1</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>305</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <f>E25-D25</f>
+        <v>-1</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>307</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11">
+        <f>E26-D26</f>
+        <v>-1</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>309</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>625</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11">
+        <f>E27-D27</f>
+        <v>-1</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>319</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11">
+        <f>E28-D28</f>
+        <v>-1</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>324</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11">
+        <f>E29-D29</f>
+        <v>-1</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>325</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11">
+        <f>E30-D30</f>
+        <v>-1</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="D31" s="27">
+        <f>SUM(D5:D30)</f>
+        <v>52</v>
+      </c>
+      <c r="E31" s="27">
+        <f>SUM(E5:E30)</f>
+        <v>38</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I34" s="51"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>147</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11">
+        <f>E35-D35</f>
+        <v>-1</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="I35" s="51"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>154</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11">
+        <f>E36-D36</f>
+        <v>-1</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>166</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11">
+        <f>E37-D37</f>
+        <v>-1</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="I37" s="51"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>168</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11">
+        <f>E38-D38</f>
+        <v>-1</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="I38" s="51"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>175</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>962</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11">
+        <f>E39-D39</f>
+        <v>-1</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I39" s="51"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>177</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>966</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11">
+        <f>E40-D40</f>
+        <v>-1</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="I40" s="51"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>178</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11">
+        <f>E41-D41</f>
+        <v>-1</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="I41" s="51"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>179</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>968</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D42" s="11">
+        <v>5</v>
+      </c>
+      <c r="E42" s="11">
+        <v>9</v>
+      </c>
+      <c r="F42" s="11">
+        <f>E42-D42</f>
+        <v>4</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="I42" s="51"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>210</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D43" s="11">
+        <v>2</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11">
+        <f>E43-D43</f>
+        <v>-1</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I43" s="51"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>215</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11">
+        <f>E44-D44</f>
+        <v>-1</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="I44" s="51"/>
+    </row>
+    <row r="45" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="D45" s="27">
+        <f>SUM(D35:D44)</f>
+        <v>16</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="30"/>
+      <c r="I45" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I33:I45"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>43998</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>147</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <f>E5-D5</f>
+        <v>-1</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>154</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <f>E6-D6</f>
+        <v>-1</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>166</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <f>E7-D7</f>
+        <v>-1</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>168</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <f>E8-D8</f>
+        <v>-1</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>175</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>962</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <f>E9-D9</f>
+        <v>-1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>177</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>966</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <f>E10-D10</f>
+        <v>-1</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>178</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <f>E11-D11</f>
+        <v>-1</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>179</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>968</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>9</v>
+      </c>
+      <c r="F12" s="11">
+        <f>E12-D12</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>210</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <f>E13-D13</f>
+        <v>-1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>215</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <f>E14-D14</f>
+        <v>-1</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="D15" s="27">
+        <f>SUM(D5:D14)</f>
+        <v>16</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
@@ -19996,9 +21265,9 @@
   <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F25" sqref="F25"/>
-      <selection pane="bottomLeft" activeCell="I330" sqref="I330"/>
+      <selection pane="bottomLeft" activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29641,10 +30910,10 @@
   </sheetPr>
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F25" sqref="F25"/>
-      <selection pane="bottomLeft" activeCell="I215" sqref="I215"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39948,10 +41217,10 @@
       <c r="D4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>1107</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -40427,8 +41696,8 @@
         <f>SUM(D5:D33)</f>
         <v>36</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
     </row>
     <row r="35" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
@@ -40456,10 +41725,10 @@
       <c r="D37" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="47" t="s">
         <v>1107</v>
       </c>
-      <c r="F37" s="48"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
@@ -41143,21 +42412,44 @@
         <f>SUM(D38:D79)</f>
         <v>83</v>
       </c>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
@@ -41170,46 +42462,27 @@
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
@@ -41221,10 +42494,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -41296,8 +42565,8 @@
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
@@ -41670,6 +42939,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
@@ -41686,22 +42971,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="110" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -41715,8 +42984,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
